--- a/state_gradings.xlsx
+++ b/state_gradings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/averykleptach/Desktop/Fall 2024/datavis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/averykleptach/Desktop/Fall 2024/datavis/project/aklepta19.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F61FCE-05F7-BB49-9745-19E2B9DAB007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CC898E-4CE1-F540-BF35-21BAEAC4D3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20080" xr2:uid="{781C99FB-6BC3-2E46-8145-48FB2CF357B9}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="2017" sheetId="5" r:id="rId6"/>
     <sheet name="2018" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -410,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -419,7 +419,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -763,587 +762,587 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="10"/>
-    <col min="3" max="3" width="15.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="2" width="10.83203125" style="9"/>
+    <col min="3" max="3" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>2013</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2013</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>25</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>2013</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>2013</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>2013</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>31</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>2013</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>36</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>2013</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>20</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>2013</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>27</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>2014</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>10</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>2014</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>32</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>2014</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>27</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>2014</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>4</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>2014</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>29</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>2014</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>34</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>2014</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>20</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>2014</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>24</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>2015</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>10</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>2015</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>28</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>2015</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>28</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>2015</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>4</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>2015</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>25</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>2015</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>28</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>2015</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>20</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>2015</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>24</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>2016</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>11</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>2016</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>26</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>2016</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>29</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>2016</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>5</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <v>2016</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>23</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <v>2016</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>29</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="10">
+      <c r="A32" s="9">
         <v>2016</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>21</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <v>2016</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>34</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <v>2017</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <v>11</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <v>2017</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <v>26</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <v>2017</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <v>32</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="10">
+      <c r="A37" s="9">
         <v>2017</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>6</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <v>2017</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>25</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="10">
+      <c r="A39" s="9">
         <v>2017</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>29</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="10">
+      <c r="A40" s="9">
         <v>2017</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>20</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <v>2017</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <v>32</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1943,9 +1942,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="3" max="3" width="10.83203125" style="8"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1954,7 +1950,7 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1965,7 +1961,7 @@
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1976,7 +1972,7 @@
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1987,7 +1983,7 @@
       <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1998,7 +1994,7 @@
       <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2009,7 +2005,7 @@
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2020,7 +2016,7 @@
       <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2031,7 +2027,7 @@
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2042,7 +2038,7 @@
       <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2053,7 +2049,7 @@
       <c r="B10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2064,7 +2060,7 @@
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2075,7 +2071,7 @@
       <c r="B12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2086,7 +2082,7 @@
       <c r="B13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2097,7 +2093,7 @@
       <c r="B14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2108,7 +2104,7 @@
       <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2119,7 +2115,7 @@
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2130,7 +2126,7 @@
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2141,7 +2137,7 @@
       <c r="B18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2152,7 +2148,7 @@
       <c r="B19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2163,7 +2159,7 @@
       <c r="B20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2174,7 +2170,7 @@
       <c r="B21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2185,7 +2181,7 @@
       <c r="B22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2196,7 +2192,7 @@
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2207,7 +2203,7 @@
       <c r="B24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2218,7 +2214,7 @@
       <c r="B25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2229,7 +2225,7 @@
       <c r="B26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2240,7 +2236,7 @@
       <c r="B27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2251,7 +2247,7 @@
       <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2262,7 +2258,7 @@
       <c r="B29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2273,7 +2269,7 @@
       <c r="B30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2284,7 +2280,7 @@
       <c r="B31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2295,7 +2291,7 @@
       <c r="B32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2306,7 +2302,7 @@
       <c r="B33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2317,7 +2313,7 @@
       <c r="B34" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2328,7 +2324,7 @@
       <c r="B35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2339,7 +2335,7 @@
       <c r="B36" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2350,7 +2346,7 @@
       <c r="B37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2361,7 +2357,7 @@
       <c r="B38" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2372,7 +2368,7 @@
       <c r="B39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2383,7 +2379,7 @@
       <c r="B40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2394,7 +2390,7 @@
       <c r="B41" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2405,7 +2401,7 @@
       <c r="B42" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2416,7 +2412,7 @@
       <c r="B43" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2427,7 +2423,7 @@
       <c r="B44" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2438,7 +2434,7 @@
       <c r="B45" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2449,7 +2445,7 @@
       <c r="B46" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2460,7 +2456,7 @@
       <c r="B47" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2471,7 +2467,7 @@
       <c r="B48" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2482,7 +2478,7 @@
       <c r="B49" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2493,7 +2489,7 @@
       <c r="B50" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2504,7 +2500,7 @@
       <c r="B51" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2523,668 +2519,668 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>25</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="C28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>28</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
+      <c r="C30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>28</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>28</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="C33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="C34" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>33</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="C35" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>35</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="C36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+      <c r="C37" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>37</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+      <c r="C38" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>37</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="C39" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>37</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="C40" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>40</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+      <c r="C41" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
+      <c r="C42" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <v>41</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
+      <c r="C43" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="11">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
+      <c r="C44" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>44</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
+      <c r="C45" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>44</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
+      <c r="C46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="11">
+      <c r="A47" s="10">
         <v>46</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
+      <c r="C47" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="11">
+      <c r="A48" s="10">
         <v>47</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
+      <c r="C48" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="11">
+      <c r="A49" s="10">
         <v>48</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
+      <c r="C49" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="11">
+      <c r="A50" s="10">
         <v>49</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
+      <c r="C50" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="11">
+      <c r="A51" s="10">
         <v>50</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="11"/>
+      <c r="C51" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
